--- a/Thesis Report/Charts/Requirements list.xlsx
+++ b/Thesis Report/Charts/Requirements list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yhl125/Documents/uofglasgow/MSc Project/MSc Project/Charts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yhl125/Documents/uofglasgow/MSc Project/MSc Project/Thesis Report/Charts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442B95A7-FCA4-0942-A983-15F3C4A3147F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A08D79-58C1-C842-996D-1B589BA11945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="460" windowWidth="17080" windowHeight="15900" xr2:uid="{2E034F2E-00BA-9444-B105-111B85EB2429}"/>
+    <workbookView xWindow="280" yWindow="460" windowWidth="26420" windowHeight="15900" xr2:uid="{2E034F2E-00BA-9444-B105-111B85EB2429}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="65">
   <si>
     <t>Module</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -209,6 +209,86 @@
   </si>
   <si>
     <t>Users can read all direct and anonymous posts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assertion Failure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assertion Pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Regist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upload profile pictures</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modify personal information</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Send posts directly with emoticons</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Send posts anonymously</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Send encrypted posts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check sensitive information in posts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Like Posts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decrypt posts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment on post with emojis directly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test Content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thumb up posts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment anonymously</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Search posts by entering keywords</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -216,7 +296,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -255,6 +335,18 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF313131"/>
+      <name val="Wingdings 2"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF313131"/>
+      <name val="Webdings"/>
+      <charset val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -264,12 +356,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -278,7 +385,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -311,6 +418,30 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -626,19 +757,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE971ED7-61B7-8144-B355-681869D3568A}">
-  <dimension ref="A1:M236"/>
+  <dimension ref="A1:M222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="125" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="7.1640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="6"/>
-    <col min="3" max="3" width="50" style="9" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="4"/>
-    <col min="5" max="5" width="26.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="31.83203125" style="9" customWidth="1"/>
+    <col min="4" max="5" width="8.83203125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18">
@@ -1453,11 +1583,22 @@
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
     </row>
-    <row r="40" spans="1:13">
-      <c r="A40" s="2"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
+    <row r="40" spans="1:13" ht="34">
+      <c r="A40" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>46</v>
+      </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -1467,11 +1608,22 @@
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
     </row>
-    <row r="41" spans="1:13">
-      <c r="A41" s="2"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
+    <row r="41" spans="1:13" ht="20">
+      <c r="A41" s="13">
+        <v>1</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>64</v>
+      </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -1481,11 +1633,20 @@
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
     </row>
-    <row r="42" spans="1:13">
-      <c r="A42" s="2"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
+    <row r="42" spans="1:13" ht="20">
+      <c r="A42" s="13">
+        <v>2</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>64</v>
+      </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -1495,11 +1656,20 @@
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
     </row>
-    <row r="43" spans="1:13">
-      <c r="A43" s="2"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
+    <row r="43" spans="1:13" ht="20">
+      <c r="A43" s="13">
+        <v>3</v>
+      </c>
+      <c r="B43" s="14"/>
+      <c r="C43" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>64</v>
+      </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -1509,11 +1679,20 @@
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
     </row>
-    <row r="44" spans="1:13">
-      <c r="A44" s="2"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
+    <row r="44" spans="1:13" ht="20">
+      <c r="A44" s="13">
+        <v>4</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>64</v>
+      </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -1523,11 +1702,22 @@
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
     </row>
-    <row r="45" spans="1:13">
-      <c r="A45" s="2"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
+    <row r="45" spans="1:13" ht="36">
+      <c r="A45" s="13">
+        <v>5</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>64</v>
+      </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
@@ -1537,11 +1727,20 @@
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
     </row>
-    <row r="46" spans="1:13">
-      <c r="A46" s="2"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
+    <row r="46" spans="1:13" ht="20">
+      <c r="A46" s="13">
+        <v>6</v>
+      </c>
+      <c r="B46" s="14"/>
+      <c r="C46" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>64</v>
+      </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -1551,11 +1750,20 @@
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
     </row>
-    <row r="47" spans="1:13">
-      <c r="A47" s="2"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
+    <row r="47" spans="1:13" ht="20">
+      <c r="A47" s="13">
+        <v>7</v>
+      </c>
+      <c r="B47" s="14"/>
+      <c r="C47" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>64</v>
+      </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
@@ -1565,11 +1773,20 @@
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
     </row>
-    <row r="48" spans="1:13">
-      <c r="A48" s="2"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
+    <row r="48" spans="1:13" ht="36">
+      <c r="A48" s="13">
+        <v>8</v>
+      </c>
+      <c r="B48" s="14"/>
+      <c r="C48" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>64</v>
+      </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -1579,11 +1796,22 @@
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
     </row>
-    <row r="49" spans="1:13">
-      <c r="A49" s="2"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
+    <row r="49" spans="1:13" ht="20">
+      <c r="A49" s="13">
+        <v>9</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>64</v>
+      </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
@@ -1593,11 +1821,22 @@
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
     </row>
-    <row r="50" spans="1:13">
-      <c r="A50" s="2"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
+    <row r="50" spans="1:13" ht="36">
+      <c r="A50" s="13">
+        <v>10</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>64</v>
+      </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -1607,11 +1846,22 @@
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
     </row>
-    <row r="51" spans="1:13">
-      <c r="A51" s="2"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
+    <row r="51" spans="1:13" ht="36">
+      <c r="A51" s="13">
+        <v>11</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>64</v>
+      </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -1621,11 +1871,20 @@
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
     </row>
-    <row r="52" spans="1:13">
-      <c r="A52" s="2"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
+    <row r="52" spans="1:13" ht="20">
+      <c r="A52" s="13">
+        <v>12</v>
+      </c>
+      <c r="B52" s="14"/>
+      <c r="C52" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>64</v>
+      </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
@@ -1635,11 +1894,22 @@
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
     </row>
-    <row r="53" spans="1:13">
-      <c r="A53" s="2"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
+    <row r="53" spans="1:13" ht="36">
+      <c r="A53" s="13">
+        <v>13</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>64</v>
+      </c>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
@@ -4015,204 +4285,11 @@
       <c r="L222" s="1"/>
       <c r="M222" s="1"/>
     </row>
-    <row r="223" spans="1:13">
-      <c r="A223" s="2"/>
-      <c r="C223" s="6"/>
-      <c r="D223" s="2"/>
-      <c r="E223" s="2"/>
-      <c r="F223" s="1"/>
-      <c r="G223" s="1"/>
-      <c r="H223" s="1"/>
-      <c r="I223" s="1"/>
-      <c r="J223" s="1"/>
-      <c r="K223" s="1"/>
-      <c r="L223" s="1"/>
-      <c r="M223" s="1"/>
-    </row>
-    <row r="224" spans="1:13">
-      <c r="A224" s="2"/>
-      <c r="C224" s="6"/>
-      <c r="D224" s="2"/>
-      <c r="E224" s="2"/>
-      <c r="F224" s="1"/>
-      <c r="G224" s="1"/>
-      <c r="H224" s="1"/>
-      <c r="I224" s="1"/>
-      <c r="J224" s="1"/>
-      <c r="K224" s="1"/>
-      <c r="L224" s="1"/>
-      <c r="M224" s="1"/>
-    </row>
-    <row r="225" spans="1:13">
-      <c r="A225" s="2"/>
-      <c r="C225" s="6"/>
-      <c r="D225" s="2"/>
-      <c r="E225" s="2"/>
-      <c r="F225" s="1"/>
-      <c r="G225" s="1"/>
-      <c r="H225" s="1"/>
-      <c r="I225" s="1"/>
-      <c r="J225" s="1"/>
-      <c r="K225" s="1"/>
-      <c r="L225" s="1"/>
-      <c r="M225" s="1"/>
-    </row>
-    <row r="226" spans="1:13">
-      <c r="A226" s="2"/>
-      <c r="C226" s="6"/>
-      <c r="D226" s="2"/>
-      <c r="E226" s="2"/>
-      <c r="F226" s="1"/>
-      <c r="G226" s="1"/>
-      <c r="H226" s="1"/>
-      <c r="I226" s="1"/>
-      <c r="J226" s="1"/>
-      <c r="K226" s="1"/>
-      <c r="L226" s="1"/>
-      <c r="M226" s="1"/>
-    </row>
-    <row r="227" spans="1:13">
-      <c r="A227" s="2"/>
-      <c r="C227" s="6"/>
-      <c r="D227" s="2"/>
-      <c r="E227" s="2"/>
-      <c r="F227" s="1"/>
-      <c r="G227" s="1"/>
-      <c r="H227" s="1"/>
-      <c r="I227" s="1"/>
-      <c r="J227" s="1"/>
-      <c r="K227" s="1"/>
-      <c r="L227" s="1"/>
-      <c r="M227" s="1"/>
-    </row>
-    <row r="228" spans="1:13">
-      <c r="A228" s="2"/>
-      <c r="C228" s="6"/>
-      <c r="D228" s="2"/>
-      <c r="E228" s="2"/>
-      <c r="F228" s="1"/>
-      <c r="G228" s="1"/>
-      <c r="H228" s="1"/>
-      <c r="I228" s="1"/>
-      <c r="J228" s="1"/>
-      <c r="K228" s="1"/>
-      <c r="L228" s="1"/>
-      <c r="M228" s="1"/>
-    </row>
-    <row r="229" spans="1:13">
-      <c r="A229" s="2"/>
-      <c r="C229" s="6"/>
-      <c r="D229" s="2"/>
-      <c r="E229" s="2"/>
-      <c r="F229" s="1"/>
-      <c r="G229" s="1"/>
-      <c r="H229" s="1"/>
-      <c r="I229" s="1"/>
-      <c r="J229" s="1"/>
-      <c r="K229" s="1"/>
-      <c r="L229" s="1"/>
-      <c r="M229" s="1"/>
-    </row>
-    <row r="230" spans="1:13">
-      <c r="A230" s="2"/>
-      <c r="C230" s="6"/>
-      <c r="D230" s="2"/>
-      <c r="E230" s="2"/>
-      <c r="F230" s="1"/>
-      <c r="G230" s="1"/>
-      <c r="H230" s="1"/>
-      <c r="I230" s="1"/>
-      <c r="J230" s="1"/>
-      <c r="K230" s="1"/>
-      <c r="L230" s="1"/>
-      <c r="M230" s="1"/>
-    </row>
-    <row r="231" spans="1:13">
-      <c r="A231" s="2"/>
-      <c r="C231" s="6"/>
-      <c r="D231" s="2"/>
-      <c r="E231" s="2"/>
-      <c r="F231" s="1"/>
-      <c r="G231" s="1"/>
-      <c r="H231" s="1"/>
-      <c r="I231" s="1"/>
-      <c r="J231" s="1"/>
-      <c r="K231" s="1"/>
-      <c r="L231" s="1"/>
-      <c r="M231" s="1"/>
-    </row>
-    <row r="232" spans="1:13">
-      <c r="A232" s="2"/>
-      <c r="C232" s="6"/>
-      <c r="D232" s="2"/>
-      <c r="E232" s="2"/>
-      <c r="F232" s="1"/>
-      <c r="G232" s="1"/>
-      <c r="H232" s="1"/>
-      <c r="I232" s="1"/>
-      <c r="J232" s="1"/>
-      <c r="K232" s="1"/>
-      <c r="L232" s="1"/>
-      <c r="M232" s="1"/>
-    </row>
-    <row r="233" spans="1:13">
-      <c r="A233" s="2"/>
-      <c r="C233" s="6"/>
-      <c r="D233" s="2"/>
-      <c r="E233" s="2"/>
-      <c r="F233" s="1"/>
-      <c r="G233" s="1"/>
-      <c r="H233" s="1"/>
-      <c r="I233" s="1"/>
-      <c r="J233" s="1"/>
-      <c r="K233" s="1"/>
-      <c r="L233" s="1"/>
-      <c r="M233" s="1"/>
-    </row>
-    <row r="234" spans="1:13">
-      <c r="A234" s="2"/>
-      <c r="C234" s="6"/>
-      <c r="D234" s="2"/>
-      <c r="E234" s="2"/>
-      <c r="F234" s="1"/>
-      <c r="G234" s="1"/>
-      <c r="H234" s="1"/>
-      <c r="I234" s="1"/>
-      <c r="J234" s="1"/>
-      <c r="K234" s="1"/>
-      <c r="L234" s="1"/>
-      <c r="M234" s="1"/>
-    </row>
-    <row r="235" spans="1:13">
-      <c r="A235" s="2"/>
-      <c r="C235" s="6"/>
-      <c r="D235" s="2"/>
-      <c r="E235" s="2"/>
-      <c r="F235" s="1"/>
-      <c r="G235" s="1"/>
-      <c r="H235" s="1"/>
-      <c r="I235" s="1"/>
-      <c r="J235" s="1"/>
-      <c r="K235" s="1"/>
-      <c r="L235" s="1"/>
-      <c r="M235" s="1"/>
-    </row>
-    <row r="236" spans="1:13">
-      <c r="A236" s="2"/>
-      <c r="C236" s="6"/>
-      <c r="D236" s="2"/>
-      <c r="E236" s="2"/>
-      <c r="F236" s="1"/>
-      <c r="G236" s="1"/>
-      <c r="H236" s="1"/>
-      <c r="I236" s="1"/>
-      <c r="J236" s="1"/>
-      <c r="K236" s="1"/>
-      <c r="L236" s="1"/>
-      <c r="M236" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="B51:B52"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="B7:B13"/>
     <mergeCell ref="B14:B17"/>
@@ -4222,5 +4299,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>